--- a/biology/Neurosciences/Cône_axonique/Cône_axonique.xlsx
+++ b/biology/Neurosciences/Cône_axonique/Cône_axonique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4ne_axonique</t>
+          <t>Cône_axonique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cône d'émergence de l'axone (aussi appelé zone de gâchette)   est une partie du neurone qui se situe à l'origine de l'axone en continuité avec le soma, ou plus rarement avec une dendrite. Il présente une morphologie conique, de diamètre (quelques microns) et de longueur variables (quelques dizaines de microns).
 À son niveau, la membrane plasmique se caractérise par une surabondance de canaux sodiques et potassiques. Lorsque les dépolarisations somato-dendritiques y arrivent et que leur sommation atteignent ou dépassent le potentiel seuil, il se produit une ouverture de tous canaux sodiques voltage-dépendant donnant naissance à des potentiels d'action (influx nerveux).
